--- a/toernooi.xlsx
+++ b/toernooi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="7" r:id="rId1"/>
@@ -181,9 +181,6 @@
     <t>Versie</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -215,9 +212,6 @@
   </si>
   <si>
     <t>Geef de tabbladen herkenbare namen bijvoorbeeld: poule 1 - heren 1</t>
-  </si>
-  <si>
-    <t>Vul op elk tabblad de naam van de poule in en de name van de teams</t>
   </si>
   <si>
     <t>Wedstrijden 22e toernooi</t>
@@ -275,6 +269,12 @@
   </si>
   <si>
     <t>https://github.com/golles/excel-toernooi</t>
+  </si>
+  <si>
+    <t>Vul op elk tabblad de naam van de poule in en de namen van de teams</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1205,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1455,6 +1455,39 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1488,39 +1521,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="23" xfId="357" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1530,30 +1530,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1580,13 +1556,31 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2332,31 +2326,31 @@
       <c r="B2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="91"/>
+      <c r="C2" s="80"/>
       <c r="E2" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
+        <v>72</v>
+      </c>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="2:13">
-      <c r="B3" s="86"/>
-      <c r="C3" s="92"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="88"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="81"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="2:13" ht="18">
       <c r="B4" s="24">
         <v>1</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="81"/>
+        <v>56</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="92"/>
       <c r="G4" s="39">
         <v>3</v>
       </c>
@@ -2367,12 +2361,12 @@
         <v>2</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="83"/>
+        <v>57</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="94"/>
       <c r="G5" s="40">
         <v>1</v>
       </c>
@@ -2383,12 +2377,12 @@
         <v>3</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="90"/>
+        <v>71</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="79"/>
       <c r="G6" s="41">
         <v>0</v>
       </c>
@@ -2399,7 +2393,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="18" customHeight="1">
@@ -2407,106 +2401,106 @@
         <v>5</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="85"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74"/>
     </row>
     <row r="9" spans="2:13" ht="18">
       <c r="B9" s="25">
         <v>6</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="86"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="88"/>
+        <v>60</v>
+      </c>
+      <c r="E9" s="75"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
     </row>
     <row r="10" spans="2:13" ht="18">
       <c r="B10" s="25">
         <v>7</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="94"/>
+      <c r="G10" s="83"/>
     </row>
     <row r="11" spans="2:13" ht="18">
       <c r="B11" s="25">
         <v>8</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E11" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="77"/>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="2:13" ht="18">
       <c r="B12" s="25">
         <v>9</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="77"/>
+        <v>82</v>
+      </c>
+      <c r="G12" s="88"/>
     </row>
     <row r="13" spans="2:13" ht="18">
       <c r="B13" s="25">
         <v>10</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="76">
-        <v>42010</v>
-      </c>
-      <c r="G13" s="77"/>
+        <v>51</v>
+      </c>
+      <c r="F13" s="87">
+        <v>42351</v>
+      </c>
+      <c r="G13" s="88"/>
     </row>
     <row r="14" spans="2:13" ht="18">
       <c r="B14" s="25">
         <v>11</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="78" t="s">
-        <v>82</v>
-      </c>
-      <c r="G14" s="79"/>
+        <v>54</v>
+      </c>
+      <c r="F14" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="90"/>
     </row>
     <row r="15" spans="2:13" ht="18">
       <c r="B15" s="25">
         <v>12</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="18">
@@ -2514,7 +2508,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="18">
@@ -2522,18 +2516,18 @@
         <v>14</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15" customHeight="1">
       <c r="B19" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="73"/>
+      <c r="C19" s="84"/>
     </row>
     <row r="20" spans="2:3" ht="15" customHeight="1">
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
     </row>
     <row r="21" spans="2:3" ht="18">
       <c r="B21" s="24">
@@ -2548,7 +2542,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="18">
@@ -2562,11 +2556,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="12">
-    <mergeCell ref="E2:G3"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="E8:G9"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="B19:C20"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
@@ -2574,6 +2563,11 @@
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="E2:G3"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="F10:G10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
@@ -2627,7 +2621,7 @@
     <row r="2" spans="1:15" ht="22">
       <c r="A2" s="42"/>
       <c r="B2" s="97" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -2649,7 +2643,7 @@
     <row r="4" spans="1:15">
       <c r="A4" s="42"/>
       <c r="B4" s="48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>8</v>
@@ -2668,18 +2662,18 @@
         <v>10</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J4" s="50"/>
       <c r="K4" s="51" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L4" s="49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M4" s="50"/>
       <c r="N4" s="51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O4" s="42"/>
     </row>
@@ -3510,9 +3504,7 @@
   <sheetPr codeName="Sheet7" enableFormatConditionsCalculation="0"/>
   <dimension ref="B2:AT44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3558,19 +3550,19 @@
       <c r="M2" s="97"/>
       <c r="N2" s="97"/>
       <c r="O2" s="97"/>
-      <c r="R2" s="109" t="str">
+      <c r="R2" s="101" t="str">
         <f>B2</f>
         <v>Poule - 8 teams</v>
       </c>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
     </row>
     <row r="3" spans="2:46" ht="15" customHeight="1">
       <c r="B3" s="15"/>
@@ -3585,216 +3577,216 @@
       <c r="K3" s="16"/>
     </row>
     <row r="4" spans="2:46" ht="15" customHeight="1">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
-      <c r="R4" s="113" t="s">
+      <c r="R4" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="113" t="s">
+      <c r="S4" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="102" t="s">
+      <c r="T4" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="102" t="s">
+      <c r="X4" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" s="102" t="s">
+      <c r="Y4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="102" t="s">
+      <c r="Z4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="102" t="s">
+      <c r="AA4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="AD4" s="103" t="s">
+      <c r="AD4" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="AE4" s="101" t="s">
+      <c r="AE4" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="AF4" s="101" t="s">
+      <c r="AF4" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="AG4" s="101" t="s">
+      <c r="AG4" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="AH4" s="98" t="s">
+      <c r="AH4" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="98" t="s">
+      <c r="AI4" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AJ4" s="101" t="s">
+      <c r="AJ4" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="AK4" s="101" t="s">
+      <c r="AK4" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="101" t="s">
+      <c r="AL4" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="AM4" s="101" t="s">
+      <c r="AM4" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="AN4" s="101" t="s">
+      <c r="AN4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="AO4" s="98" t="s">
+      <c r="AO4" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="AP4" s="98" t="s">
+      <c r="AP4" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="AQ4" s="101" t="s">
+      <c r="AQ4" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="AR4" s="98" t="s">
+      <c r="AR4" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="AS4" s="98" t="s">
+      <c r="AS4" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="AT4" s="101" t="s">
+      <c r="AT4" s="109" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:46" ht="15" customHeight="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="112"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="99"/>
-      <c r="AI5" s="99"/>
-      <c r="AJ5" s="99"/>
-      <c r="AK5" s="99"/>
-      <c r="AL5" s="99"/>
-      <c r="AM5" s="99"/>
-      <c r="AN5" s="99"/>
-      <c r="AO5" s="99"/>
-      <c r="AP5" s="99"/>
-      <c r="AQ5" s="99"/>
-      <c r="AR5" s="99"/>
-      <c r="AS5" s="99"/>
-      <c r="AT5" s="99"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="106"/>
+      <c r="AP5" s="106"/>
+      <c r="AQ5" s="106"/>
+      <c r="AR5" s="106"/>
+      <c r="AS5" s="106"/>
+      <c r="AT5" s="106"/>
     </row>
     <row r="6" spans="2:46">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="99"/>
-      <c r="AJ6" s="99"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="99"/>
-      <c r="AM6" s="99"/>
-      <c r="AN6" s="99"/>
-      <c r="AO6" s="99"/>
-      <c r="AP6" s="99"/>
-      <c r="AQ6" s="99"/>
-      <c r="AR6" s="99"/>
-      <c r="AS6" s="99"/>
-      <c r="AT6" s="99"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="106"/>
+      <c r="AI6" s="106"/>
+      <c r="AJ6" s="106"/>
+      <c r="AK6" s="106"/>
+      <c r="AL6" s="106"/>
+      <c r="AM6" s="106"/>
+      <c r="AN6" s="106"/>
+      <c r="AO6" s="106"/>
+      <c r="AP6" s="106"/>
+      <c r="AQ6" s="106"/>
+      <c r="AR6" s="106"/>
+      <c r="AS6" s="106"/>
+      <c r="AT6" s="106"/>
     </row>
     <row r="7" spans="2:46">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="100"/>
-      <c r="AI7" s="100"/>
-      <c r="AJ7" s="100"/>
-      <c r="AK7" s="100"/>
-      <c r="AL7" s="100"/>
-      <c r="AM7" s="100"/>
-      <c r="AN7" s="100"/>
-      <c r="AO7" s="100"/>
-      <c r="AP7" s="100"/>
-      <c r="AQ7" s="100"/>
-      <c r="AR7" s="100"/>
-      <c r="AS7" s="100"/>
-      <c r="AT7" s="100"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
     </row>
     <row r="8" spans="2:46">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
       <c r="R8" s="6">
         <v>1</v>
       </c>
@@ -3904,13 +3896,13 @@
       </c>
     </row>
     <row r="9" spans="2:46">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
       <c r="R9" s="6">
         <v>2</v>
       </c>
@@ -4020,13 +4012,13 @@
       </c>
     </row>
     <row r="10" spans="2:46">
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
       <c r="R10" s="6">
         <v>3</v>
       </c>
@@ -4136,13 +4128,13 @@
       </c>
     </row>
     <row r="11" spans="2:46">
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="112"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
       <c r="R11" s="6">
         <v>4</v>
       </c>
@@ -4252,13 +4244,13 @@
       </c>
     </row>
     <row r="12" spans="2:46">
-      <c r="B12" s="110" t="s">
+      <c r="B12" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
       <c r="R12" s="6">
         <v>5</v>
       </c>
@@ -4718,11 +4710,11 @@
       <c r="H16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="106" t="s">
+      <c r="I16" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="J16" s="107"/>
-      <c r="K16" s="108"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="100"/>
       <c r="L16" s="2" t="s">
         <v>2</v>
       </c>
@@ -5803,6 +5795,29 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="39">
+    <mergeCell ref="AH4:AH7"/>
+    <mergeCell ref="AI4:AI7"/>
+    <mergeCell ref="AJ4:AJ7"/>
+    <mergeCell ref="AK4:AK7"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="AR4:AR7"/>
+    <mergeCell ref="AS4:AS7"/>
+    <mergeCell ref="AT4:AT7"/>
+    <mergeCell ref="AM4:AM7"/>
+    <mergeCell ref="AN4:AN7"/>
+    <mergeCell ref="AO4:AO7"/>
+    <mergeCell ref="AP4:AP7"/>
+    <mergeCell ref="AQ4:AQ7"/>
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="AG4:AG7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AD4:AD7"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="R2:AA2"/>
@@ -5819,29 +5834,6 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AR4:AR7"/>
-    <mergeCell ref="AS4:AS7"/>
-    <mergeCell ref="AT4:AT7"/>
-    <mergeCell ref="AM4:AM7"/>
-    <mergeCell ref="AN4:AN7"/>
-    <mergeCell ref="AO4:AO7"/>
-    <mergeCell ref="AP4:AP7"/>
-    <mergeCell ref="AQ4:AQ7"/>
-    <mergeCell ref="AH4:AH7"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="AK4:AK7"/>
-    <mergeCell ref="AL4:AL7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5861,9 +5853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AT39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BC10" sqref="BC10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -5909,19 +5899,19 @@
       <c r="M2" s="97"/>
       <c r="N2" s="97"/>
       <c r="O2" s="97"/>
-      <c r="R2" s="109" t="str">
+      <c r="R2" s="101" t="str">
         <f>B2</f>
         <v>Poule - 7 teams</v>
       </c>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
     </row>
     <row r="3" spans="2:46" ht="15" customHeight="1">
       <c r="B3" s="15"/>
@@ -5941,13 +5931,13 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="2:46" ht="15" customHeight="1">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -5958,210 +5948,210 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
-      <c r="R4" s="113" t="s">
+      <c r="R4" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="113" t="s">
+      <c r="S4" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="102" t="s">
+      <c r="T4" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="102" t="s">
+      <c r="X4" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" s="102" t="s">
+      <c r="Y4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="102" t="s">
+      <c r="Z4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="102" t="s">
+      <c r="AA4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="AD4" s="103" t="s">
+      <c r="AD4" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="AE4" s="101" t="s">
+      <c r="AE4" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="AF4" s="101" t="s">
+      <c r="AF4" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="AG4" s="101" t="s">
+      <c r="AG4" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="AH4" s="98" t="s">
+      <c r="AH4" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="98" t="s">
+      <c r="AI4" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AJ4" s="101" t="s">
+      <c r="AJ4" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="AK4" s="101" t="s">
+      <c r="AK4" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="101" t="s">
+      <c r="AL4" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="AM4" s="101" t="s">
+      <c r="AM4" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="AN4" s="101" t="s">
+      <c r="AN4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="AO4" s="98" t="s">
+      <c r="AO4" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="AP4" s="98" t="s">
+      <c r="AP4" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="AQ4" s="101" t="s">
+      <c r="AQ4" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="AR4" s="98" t="s">
+      <c r="AR4" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="AS4" s="98" t="s">
+      <c r="AS4" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="AT4" s="101" t="s">
+      <c r="AT4" s="109" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:46" ht="15" customHeight="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="112"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="99"/>
-      <c r="AI5" s="99"/>
-      <c r="AJ5" s="99"/>
-      <c r="AK5" s="99"/>
-      <c r="AL5" s="99"/>
-      <c r="AM5" s="99"/>
-      <c r="AN5" s="99"/>
-      <c r="AO5" s="99"/>
-      <c r="AP5" s="99"/>
-      <c r="AQ5" s="99"/>
-      <c r="AR5" s="99"/>
-      <c r="AS5" s="99"/>
-      <c r="AT5" s="99"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="106"/>
+      <c r="AP5" s="106"/>
+      <c r="AQ5" s="106"/>
+      <c r="AR5" s="106"/>
+      <c r="AS5" s="106"/>
+      <c r="AT5" s="106"/>
     </row>
     <row r="6" spans="2:46">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="99"/>
-      <c r="AJ6" s="99"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="99"/>
-      <c r="AM6" s="99"/>
-      <c r="AN6" s="99"/>
-      <c r="AO6" s="99"/>
-      <c r="AP6" s="99"/>
-      <c r="AQ6" s="99"/>
-      <c r="AR6" s="99"/>
-      <c r="AS6" s="99"/>
-      <c r="AT6" s="99"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="106"/>
+      <c r="AI6" s="106"/>
+      <c r="AJ6" s="106"/>
+      <c r="AK6" s="106"/>
+      <c r="AL6" s="106"/>
+      <c r="AM6" s="106"/>
+      <c r="AN6" s="106"/>
+      <c r="AO6" s="106"/>
+      <c r="AP6" s="106"/>
+      <c r="AQ6" s="106"/>
+      <c r="AR6" s="106"/>
+      <c r="AS6" s="106"/>
+      <c r="AT6" s="106"/>
     </row>
     <row r="7" spans="2:46">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="100"/>
-      <c r="AI7" s="100"/>
-      <c r="AJ7" s="100"/>
-      <c r="AK7" s="100"/>
-      <c r="AL7" s="100"/>
-      <c r="AM7" s="100"/>
-      <c r="AN7" s="100"/>
-      <c r="AO7" s="100"/>
-      <c r="AP7" s="100"/>
-      <c r="AQ7" s="100"/>
-      <c r="AR7" s="100"/>
-      <c r="AS7" s="100"/>
-      <c r="AT7" s="100"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
     </row>
     <row r="8" spans="2:46">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
       <c r="R8" s="6">
         <v>1</v>
       </c>
@@ -6226,15 +6216,15 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="3">
-        <f t="shared" ref="AJ8:AJ14" si="11">COUNTIF($L$16:$L$38,AD8)</f>
+        <f>COUNTIF($L$16:$L$36,AD8)</f>
         <v>0</v>
       </c>
       <c r="AK8" s="3">
-        <f t="shared" ref="AK8:AK14" si="12">COUNTIF($M$16:$M$38,AD8)</f>
+        <f>COUNTIF($M$16:$M$36,AD8)</f>
         <v>0</v>
       </c>
       <c r="AL8" s="3">
-        <f t="shared" ref="AL8:AL14" si="13">COUNTIF($N$16:$O$38,AD8)</f>
+        <f>COUNTIF($N$16:$O$36,AD8)</f>
         <v>0</v>
       </c>
       <c r="AM8" s="3">
@@ -6242,42 +6232,42 @@
         <v>0</v>
       </c>
       <c r="AN8" s="3">
-        <f t="shared" ref="AN8:AN14" si="14">IF(OR(AO8="",AP8=""),AO8+AP8,AO8+AP8)</f>
+        <f t="shared" ref="AN8:AN14" si="11">IF(OR(AO8="",AP8=""),AO8+AP8,AO8+AP8)</f>
         <v>0</v>
       </c>
       <c r="AO8" s="3">
-        <f t="shared" ref="AO8:AO14" si="15">SUMIF($F$16:$F$36,AD8,$I$16:$I$36)</f>
+        <f t="shared" ref="AO8:AO14" si="12">SUMIF($F$16:$F$36,AD8,$I$16:$I$36)</f>
         <v>0</v>
       </c>
       <c r="AP8" s="3">
-        <f t="shared" ref="AP8:AP14" si="16">SUMIF($H$16:$H$36,AD8,$K$16:$K$36)</f>
+        <f t="shared" ref="AP8:AP14" si="13">SUMIF($H$16:$H$36,AD8,$K$16:$K$36)</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="3">
-        <f t="shared" ref="AQ8:AQ14" si="17">IF(OR(AR8="",AS8=""),AR8+AS8,AR8+AS8)</f>
+        <f t="shared" ref="AQ8:AQ14" si="14">IF(OR(AR8="",AS8=""),AR8+AS8,AR8+AS8)</f>
         <v>0</v>
       </c>
       <c r="AR8" s="3">
-        <f t="shared" ref="AR8:AR14" si="18">SUMIF($F$16:$F$36,AD8,$K$16:$K$36)</f>
+        <f t="shared" ref="AR8:AR14" si="15">SUMIF($F$16:$F$36,AD8,$K$16:$K$36)</f>
         <v>0</v>
       </c>
       <c r="AS8" s="3">
-        <f t="shared" ref="AS8:AS14" si="19">SUMIF($H$16:$H$36,AD8,$I$16:$I$36)</f>
+        <f t="shared" ref="AS8:AS14" si="16">SUMIF($H$16:$H$36,AD8,$I$16:$I$36)</f>
         <v>0</v>
       </c>
       <c r="AT8" s="3">
-        <f t="shared" ref="AT8:AT14" si="20">IF(OR(AN8="",AQ8=""),AN8-AQ8,AN8-AQ8)</f>
+        <f t="shared" ref="AT8:AT14" si="17">IF(OR(AN8="",AQ8=""),AN8-AQ8,AN8-AQ8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:46">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
       <c r="R9" s="6">
         <v>2</v>
       </c>
@@ -6322,7 +6312,7 @@
         <v>Team B</v>
       </c>
       <c r="AE9" s="3">
-        <f t="shared" ref="AE9:AE14" si="21">AT9+AM9*1000000+AF9*1000</f>
+        <f t="shared" ref="AE9:AE14" si="18">AT9+AM9*1000000+AF9*1000</f>
         <v>6000</v>
       </c>
       <c r="AF9" s="3">
@@ -6342,15 +6332,15 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AJ9:AJ14" si="19">COUNTIF($L$16:$L$36,AD9)</f>
         <v>0</v>
       </c>
       <c r="AK9" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AK9:AK14" si="20">COUNTIF($M$16:$M$36,AD9)</f>
         <v>0</v>
       </c>
       <c r="AL9" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AL9:AL14" si="21">COUNTIF($N$16:$O$36,AD9)</f>
         <v>0</v>
       </c>
       <c r="AM9" s="3">
@@ -6358,42 +6348,42 @@
         <v>0</v>
       </c>
       <c r="AN9" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AR9" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AP9" s="3">
+      <c r="AS9" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AQ9" s="3">
+      <c r="AT9" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AR9" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AS9" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AT9" s="3">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="2:46">
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
       <c r="R10" s="6">
         <v>3</v>
       </c>
@@ -6438,7 +6428,7 @@
         <v>Team C</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>6000</v>
       </c>
       <c r="AF10" s="3">
@@ -6458,15 +6448,15 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK10" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL10" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM10" s="3">
@@ -6474,42 +6464,42 @@
         <v>0</v>
       </c>
       <c r="AN10" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AR10" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AP10" s="3">
+      <c r="AS10" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AQ10" s="3">
+      <c r="AT10" s="3">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AR10" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AS10" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AT10" s="3">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="2:46">
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="112"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
       <c r="R11" s="6">
         <v>4</v>
       </c>
@@ -6554,7 +6544,7 @@
         <v>Team D</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>6000</v>
       </c>
       <c r="AF11" s="3">
@@ -6574,15 +6564,15 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK11" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL11" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM11" s="3">
@@ -6590,31 +6580,31 @@
         <v>0</v>
       </c>
       <c r="AN11" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AR11" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AS11" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AQ11" s="3">
+      <c r="AT11" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR11" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AS11" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AT11" s="3">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6663,7 +6653,7 @@
         <v>Team E</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>6000</v>
       </c>
       <c r="AF12" s="3">
@@ -6683,15 +6673,15 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK12" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL12" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM12" s="3">
@@ -6699,31 +6689,31 @@
         <v>0</v>
       </c>
       <c r="AN12" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO12" s="3">
+      <c r="AR12" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AP12" s="3">
+      <c r="AS12" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AQ12" s="3">
+      <c r="AT12" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR12" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AS12" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AT12" s="3">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6772,7 +6762,7 @@
         <v>Team F</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>6000</v>
       </c>
       <c r="AF13" s="3">
@@ -6792,15 +6782,15 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL13" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM13" s="3">
@@ -6808,31 +6798,31 @@
         <v>0</v>
       </c>
       <c r="AN13" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO13" s="3">
+      <c r="AR13" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AP13" s="3">
+      <c r="AS13" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AQ13" s="3">
+      <c r="AT13" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR13" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AS13" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AT13" s="3">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6881,7 +6871,7 @@
         <v>Team G</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>6000</v>
       </c>
       <c r="AF14" s="3">
@@ -6901,15 +6891,15 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK14" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL14" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM14" s="3">
@@ -6917,31 +6907,31 @@
         <v>0</v>
       </c>
       <c r="AN14" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO14" s="3">
+      <c r="AR14" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AP14" s="3">
+      <c r="AS14" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AQ14" s="3">
+      <c r="AT14" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR14" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AS14" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AT14" s="3">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -6965,11 +6955,11 @@
       <c r="H15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="106" t="s">
+      <c r="I15" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="107"/>
-      <c r="K15" s="108"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="100"/>
       <c r="L15" s="2" t="s">
         <v>2</v>
       </c>
@@ -7005,19 +6995,19 @@
       </c>
       <c r="K16" s="71"/>
       <c r="L16" s="3" t="str">
-        <f>IF(I15="","",IF(K15="","",IF(I15=K15,"-",IF(I15&gt;K15,F15,H15))))</f>
+        <f>IF(I16="","",IF(K16="","",IF(I16=K16,"-",IF(I16&gt;K16,F16,H16))))</f>
         <v/>
       </c>
       <c r="M16" s="3" t="str">
-        <f>IF(I15="","",IF(K15="","",IF(I15=K15,"-",IF(I15&lt;K15,F15,H15))))</f>
+        <f>IF(I16="","",IF(K16="","",IF(I16=K16,"-",IF(I16&lt;K16,F16,H16))))</f>
         <v/>
       </c>
       <c r="N16" s="3" t="str">
-        <f>IF(I15="","",IF(K15="","",IF(I15=K15,F15,"-")))</f>
+        <f>IF(I16="","",IF(K16="","",IF(I16=K16,F16,"-")))</f>
         <v/>
       </c>
       <c r="O16" s="3" t="str">
-        <f>IF(I15="","",IF(K15="","",IF(I15=K15,H15,"-")))</f>
+        <f>IF(I16="","",IF(K16="","",IF(I16=K16,H16,"-")))</f>
         <v/>
       </c>
     </row>
@@ -7043,19 +7033,19 @@
       </c>
       <c r="K17" s="71"/>
       <c r="L17" s="3" t="str">
-        <f t="shared" ref="L17:L36" si="22">IF(I16="","",IF(K16="","",IF(I16=K16,"-",IF(I16&gt;K16,F16,H16))))</f>
+        <f t="shared" ref="L17:L36" si="22">IF(I17="","",IF(K17="","",IF(I17=K17,"-",IF(I17&gt;K17,F17,H17))))</f>
         <v/>
       </c>
       <c r="M17" s="3" t="str">
-        <f t="shared" ref="M17:M36" si="23">IF(I16="","",IF(K16="","",IF(I16=K16,"-",IF(I16&lt;K16,F16,H16))))</f>
+        <f t="shared" ref="M17:M36" si="23">IF(I17="","",IF(K17="","",IF(I17=K17,"-",IF(I17&lt;K17,F17,H17))))</f>
         <v/>
       </c>
       <c r="N17" s="3" t="str">
-        <f t="shared" ref="N17:N36" si="24">IF(I16="","",IF(K16="","",IF(I16=K16,F16,"-")))</f>
+        <f t="shared" ref="N17:N36" si="24">IF(I17="","",IF(K17="","",IF(I17=K17,F17,"-")))</f>
         <v/>
       </c>
       <c r="O17" s="3" t="str">
-        <f t="shared" ref="O17:O36" si="25">IF(I16="","",IF(K16="","",IF(I16=K16,H16,"-")))</f>
+        <f t="shared" ref="O17:O36" si="25">IF(I17="","",IF(K17="","",IF(I17=K17,H17,"-")))</f>
         <v/>
       </c>
     </row>
@@ -7808,18 +7798,16 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="38">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="AS4:AS7"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
     <mergeCell ref="AT4:AT7"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
@@ -7836,16 +7824,18 @@
     <mergeCell ref="AI4:AI7"/>
     <mergeCell ref="AJ4:AJ7"/>
     <mergeCell ref="AK4:AK7"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="AS4:AS7"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AF4:AF7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -7908,19 +7898,19 @@
       <c r="M2" s="97"/>
       <c r="N2" s="97"/>
       <c r="O2" s="97"/>
-      <c r="R2" s="109" t="str">
+      <c r="R2" s="101" t="str">
         <f>B2</f>
         <v>Poule  - 6 teams</v>
       </c>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
     </row>
     <row r="3" spans="2:46" ht="15" customHeight="1">
       <c r="B3" s="15"/>
@@ -7939,13 +7929,13 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="2:46" ht="15" customHeight="1">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -7955,218 +7945,218 @@
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
-      <c r="R4" s="113" t="s">
+      <c r="R4" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="113" t="s">
+      <c r="S4" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="102" t="s">
+      <c r="T4" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="102" t="s">
+      <c r="X4" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" s="102" t="s">
+      <c r="Y4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="102" t="s">
+      <c r="Z4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="102" t="s">
+      <c r="AA4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="AD4" s="103" t="s">
+      <c r="AD4" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="AE4" s="101" t="s">
+      <c r="AE4" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="AF4" s="101" t="s">
+      <c r="AF4" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="AG4" s="101" t="s">
+      <c r="AG4" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="AH4" s="98" t="s">
+      <c r="AH4" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="98" t="s">
+      <c r="AI4" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AJ4" s="101" t="s">
+      <c r="AJ4" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="AK4" s="101" t="s">
+      <c r="AK4" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="101" t="s">
+      <c r="AL4" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="AM4" s="101" t="s">
+      <c r="AM4" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="AN4" s="101" t="s">
+      <c r="AN4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="AO4" s="98" t="s">
+      <c r="AO4" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="AP4" s="98" t="s">
+      <c r="AP4" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="AQ4" s="101" t="s">
+      <c r="AQ4" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="AR4" s="98" t="s">
+      <c r="AR4" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="AS4" s="98" t="s">
+      <c r="AS4" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="AT4" s="101" t="s">
+      <c r="AT4" s="109" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:46" ht="15" customHeight="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="112"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="99"/>
-      <c r="AI5" s="99"/>
-      <c r="AJ5" s="99"/>
-      <c r="AK5" s="99"/>
-      <c r="AL5" s="99"/>
-      <c r="AM5" s="99"/>
-      <c r="AN5" s="99"/>
-      <c r="AO5" s="99"/>
-      <c r="AP5" s="99"/>
-      <c r="AQ5" s="99"/>
-      <c r="AR5" s="99"/>
-      <c r="AS5" s="99"/>
-      <c r="AT5" s="99"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="106"/>
+      <c r="AP5" s="106"/>
+      <c r="AQ5" s="106"/>
+      <c r="AR5" s="106"/>
+      <c r="AS5" s="106"/>
+      <c r="AT5" s="106"/>
     </row>
     <row r="6" spans="2:46">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="99"/>
-      <c r="AJ6" s="99"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="99"/>
-      <c r="AM6" s="99"/>
-      <c r="AN6" s="99"/>
-      <c r="AO6" s="99"/>
-      <c r="AP6" s="99"/>
-      <c r="AQ6" s="99"/>
-      <c r="AR6" s="99"/>
-      <c r="AS6" s="99"/>
-      <c r="AT6" s="99"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="106"/>
+      <c r="AI6" s="106"/>
+      <c r="AJ6" s="106"/>
+      <c r="AK6" s="106"/>
+      <c r="AL6" s="106"/>
+      <c r="AM6" s="106"/>
+      <c r="AN6" s="106"/>
+      <c r="AO6" s="106"/>
+      <c r="AP6" s="106"/>
+      <c r="AQ6" s="106"/>
+      <c r="AR6" s="106"/>
+      <c r="AS6" s="106"/>
+      <c r="AT6" s="106"/>
     </row>
     <row r="7" spans="2:46">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="100"/>
-      <c r="AI7" s="100"/>
-      <c r="AJ7" s="100"/>
-      <c r="AK7" s="100"/>
-      <c r="AL7" s="100"/>
-      <c r="AM7" s="100"/>
-      <c r="AN7" s="100"/>
-      <c r="AO7" s="100"/>
-      <c r="AP7" s="100"/>
-      <c r="AQ7" s="100"/>
-      <c r="AR7" s="100"/>
-      <c r="AS7" s="100"/>
-      <c r="AT7" s="100"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
     </row>
     <row r="8" spans="2:46">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
       <c r="R8" s="6">
         <v>1</v>
       </c>
       <c r="S8" s="3" t="str">
         <f t="array" ref="S8">INDEX($AD$8:$AD$13,MATCH(LARGE($AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),ROW(S8)-ROW(S$8)+1),$AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),0))</f>
-        <v>Team A</v>
+        <v>Team D</v>
       </c>
       <c r="T8" s="6">
         <f t="shared" ref="T8:T13" si="0">VLOOKUP($S8,$AD$8:$AT$13,4,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="6">
         <f t="shared" ref="U8:U13" si="1">VLOOKUP($S8,$AD$8:$AT$13,7,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="6">
         <f t="shared" ref="V8:V13" si="2">VLOOKUP($S8,$AD$8:$AT$13,8,0)</f>
@@ -8178,11 +8168,11 @@
       </c>
       <c r="X8" s="18">
         <f t="shared" ref="X8:X13" si="4">VLOOKUP($S8,$AD$8:$AT$13,10,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y8" s="6">
         <f t="shared" ref="Y8:Y13" si="5">VLOOKUP($S8,$AD$8:$AT$13,11,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z8" s="6">
         <f t="shared" ref="Z8:Z13" si="6">VLOOKUP($S8,$AD$8:$AT$13,14,0)</f>
@@ -8190,7 +8180,7 @@
       </c>
       <c r="AA8" s="6">
         <f t="shared" ref="AA8:AA13" si="7">VLOOKUP($S8,$AD$8:$AT$13,17,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD8" s="3" t="str">
         <f t="shared" ref="AD8:AD13" si="8">B5</f>
@@ -8217,15 +8207,15 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="3">
-        <f t="shared" ref="AJ8:AJ13" si="11">COUNTIF($L$15:$L$26,AD8)</f>
+        <f>COUNTIF($L$15:$L$29,AD8)</f>
         <v>0</v>
       </c>
       <c r="AK8" s="3">
-        <f t="shared" ref="AK8:AK13" si="12">COUNTIF($M$15:$M$26,AD8)</f>
+        <f>COUNTIF($M$15:$M$29,AD8)</f>
         <v>0</v>
       </c>
       <c r="AL8" s="3">
-        <f t="shared" ref="AL8:AL13" si="13">COUNTIF($N$15:$O$26,AD8)</f>
+        <f>COUNTIF($N$15:$O$29,AD8)</f>
         <v>0</v>
       </c>
       <c r="AM8" s="3">
@@ -8233,52 +8223,52 @@
         <v>0</v>
       </c>
       <c r="AN8" s="3">
-        <f t="shared" ref="AN8:AN13" si="14">IF(OR(AO8="",AP8=""),AO8+AP8,AO8+AP8)</f>
+        <f t="shared" ref="AN8:AN13" si="11">IF(OR(AO8="",AP8=""),AO8+AP8,AO8+AP8)</f>
         <v>0</v>
       </c>
       <c r="AO8" s="3">
-        <f t="shared" ref="AO8:AO13" si="15">SUMIF($F$15:$F$29,AD8,$I$15:$I$29)</f>
+        <f t="shared" ref="AO8:AO13" si="12">SUMIF($F$15:$F$29,AD8,$I$15:$I$29)</f>
         <v>0</v>
       </c>
       <c r="AP8" s="3">
-        <f t="shared" ref="AP8:AP13" si="16">SUMIF($H$15:$H$29,AD8,$K$15:$K$29)</f>
+        <f t="shared" ref="AP8:AP13" si="13">SUMIF($H$15:$H$29,AD8,$K$15:$K$29)</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="3">
-        <f t="shared" ref="AQ8:AQ13" si="17">IF(OR(AR8="",AS8=""),AR8+AS8,AR8+AS8)</f>
+        <f t="shared" ref="AQ8:AQ13" si="14">IF(OR(AR8="",AS8=""),AR8+AS8,AR8+AS8)</f>
         <v>0</v>
       </c>
       <c r="AR8" s="3">
-        <f t="shared" ref="AR8:AR13" si="18">SUMIF($F$15:$F$29,AD8,$K$15:$K$29)</f>
+        <f t="shared" ref="AR8:AR13" si="15">SUMIF($F$15:$F$29,AD8,$K$15:$K$29)</f>
         <v>0</v>
       </c>
       <c r="AS8" s="3">
-        <f t="shared" ref="AS8:AS13" si="19">SUMIF($H$15:$H$29,AD8,$I$15:$I$29)</f>
+        <f t="shared" ref="AS8:AS13" si="16">SUMIF($H$15:$H$29,AD8,$I$15:$I$29)</f>
         <v>0</v>
       </c>
       <c r="AT8" s="3">
-        <f t="shared" ref="AT8:AT13" si="20">IF(OR(AN8="",AQ8=""),AN8-AQ8,AN8-AQ8)</f>
+        <f t="shared" ref="AT8:AT13" si="17">IF(OR(AN8="",AQ8=""),AN8-AQ8,AN8-AQ8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:46">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
       <c r="R9" s="6">
         <v>2</v>
       </c>
       <c r="S9" s="3" t="str">
         <f t="array" ref="S9">INDEX($AD$8:$AD$13,MATCH(LARGE($AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),ROW(S9)-ROW(S$8)+1),$AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),0))</f>
-        <v>Team B</v>
+        <v>Team E</v>
       </c>
       <c r="T9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="6">
         <f t="shared" si="1"/>
@@ -8290,19 +8280,19 @@
       </c>
       <c r="W9" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="6">
         <f t="shared" si="7"/>
@@ -8313,8 +8303,8 @@
         <v>Team B</v>
       </c>
       <c r="AE9" s="3">
-        <f t="shared" ref="AE9:AE13" si="21">AT9+AM9*1000000+AF9*1000</f>
-        <v>5000</v>
+        <f t="shared" ref="AE9:AE13" si="18">AT9+AM9*1000000+AF9*1000</f>
+        <v>4998</v>
       </c>
       <c r="AF9" s="3">
         <f t="shared" si="9"/>
@@ -8322,7 +8312,7 @@
       </c>
       <c r="AG9" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="3">
         <f t="array" ref="AH9">SUM(($F$15:$F$29=AD9)*(ISNUMBER($I$15:$I$29)))</f>
@@ -8330,18 +8320,18 @@
       </c>
       <c r="AI9" s="3">
         <f t="array" ref="AI9">SUM(($H$15:$H$29=AD9)*(ISNUMBER($K$15:$K$29)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AJ9:AJ13" si="19">COUNTIF($L$15:$L$29,AD9)</f>
         <v>0</v>
       </c>
       <c r="AK9" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" ref="AK9:AK13" si="20">COUNTIF($M$15:$M$29,AD9)</f>
+        <v>1</v>
       </c>
       <c r="AL9" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AL9:AL13" si="21">COUNTIF($N$15:$O$29,AD9)</f>
         <v>0</v>
       </c>
       <c r="AM9" s="3">
@@ -8349,52 +8339,52 @@
         <v>0</v>
       </c>
       <c r="AN9" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AR9" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AP9" s="3">
+      <c r="AS9" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR9" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AS9" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AT9" s="3">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10" spans="2:46">
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="111"/>
-      <c r="F10" s="112"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
       <c r="R10" s="6">
         <v>3</v>
       </c>
       <c r="S10" s="3" t="str">
         <f t="array" ref="S10">INDEX($AD$8:$AD$13,MATCH(LARGE($AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),ROW(S10)-ROW(S$8)+1),$AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),0))</f>
-        <v>Team C</v>
+        <v>Team F</v>
       </c>
       <c r="T10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="6">
         <f t="shared" si="1"/>
@@ -8406,19 +8396,19 @@
       </c>
       <c r="W10" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="6">
         <f t="shared" si="7"/>
@@ -8429,7 +8419,7 @@
         <v>Team C</v>
       </c>
       <c r="AE10" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="AF10" s="3">
@@ -8449,15 +8439,15 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK10" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL10" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM10" s="3">
@@ -8465,31 +8455,31 @@
         <v>0</v>
       </c>
       <c r="AN10" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AR10" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AP10" s="3">
+      <c r="AS10" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AQ10" s="3">
+      <c r="AT10" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR10" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AS10" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AT10" s="3">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -8499,7 +8489,7 @@
       </c>
       <c r="S11" s="3" t="str">
         <f t="array" ref="S11">INDEX($AD$8:$AD$13,MATCH(LARGE($AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),ROW(S11)-ROW(S$8)+1),$AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),0))</f>
-        <v>Team D</v>
+        <v>Team A</v>
       </c>
       <c r="T11" s="6">
         <f t="shared" si="0"/>
@@ -8538,8 +8528,8 @@
         <v>Team D</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" si="21"/>
-        <v>5000</v>
+        <f t="shared" si="18"/>
+        <v>3005002</v>
       </c>
       <c r="AF11" s="3">
         <f t="shared" si="9"/>
@@ -8547,59 +8537,59 @@
       </c>
       <c r="AG11" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" s="3">
         <f t="array" ref="AH11">SUM(($F$15:$F$29=AD11)*(ISNUMBER($I$15:$I$29)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="3">
         <f t="array" ref="AI11">SUM(($H$15:$H$29=AD11)*(ISNUMBER($K$15:$K$29)))</f>
         <v>0</v>
       </c>
       <c r="AJ11" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>1</v>
       </c>
       <c r="AK11" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL11" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AM11" s="3">
         <f>AJ11*Intro!$G$4+AK11*Intro!$G$6+AL11*Intro!$G$5</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN11" s="3">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AO11" s="3">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AP11" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="3">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AR11" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AS11" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AQ11" s="3">
+      <c r="AT11" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR11" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AS11" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AT11" s="3">
-        <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:46">
@@ -8608,7 +8598,7 @@
       </c>
       <c r="S12" s="3" t="str">
         <f t="array" ref="S12">INDEX($AD$8:$AD$13,MATCH(LARGE($AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),ROW(S12)-ROW(S$8)+1),$AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),0))</f>
-        <v>Team E</v>
+        <v>Team C</v>
       </c>
       <c r="T12" s="6">
         <f t="shared" si="0"/>
@@ -8647,8 +8637,8 @@
         <v>Team E</v>
       </c>
       <c r="AE12" s="3">
-        <f t="shared" si="21"/>
-        <v>5000</v>
+        <f t="shared" si="18"/>
+        <v>1005000</v>
       </c>
       <c r="AF12" s="3">
         <f t="shared" si="9"/>
@@ -8656,58 +8646,58 @@
       </c>
       <c r="AG12" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12" s="3">
         <f t="array" ref="AH12">SUM(($F$15:$F$29=AD12)*(ISNUMBER($I$15:$I$29)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" s="3">
         <f t="array" ref="AI12">SUM(($H$15:$H$29=AD12)*(ISNUMBER($K$15:$K$29)))</f>
         <v>0</v>
       </c>
       <c r="AJ12" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK12" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL12" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="AM12" s="3">
         <f>AJ12*Intro!$G$4+AK12*Intro!$G$6+AL12*Intro!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AO12" s="3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AP12" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="3">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="AP12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="3">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AQ12" s="3">
+      <c r="AT12" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR12" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AS12" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AT12" s="3">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -8717,11 +8707,11 @@
       </c>
       <c r="S13" s="3" t="str">
         <f t="array" ref="S13">INDEX($AD$8:$AD$13,MATCH(LARGE($AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),ROW(S13)-ROW(S$8)+1),$AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),0))</f>
-        <v>Team F</v>
+        <v>Team B</v>
       </c>
       <c r="T13" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="6">
         <f t="shared" si="1"/>
@@ -8729,7 +8719,7 @@
       </c>
       <c r="V13" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="6">
         <f t="shared" si="3"/>
@@ -8745,19 +8735,19 @@
       </c>
       <c r="Z13" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA13" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD13" s="3" t="str">
         <f t="shared" si="8"/>
         <v>Team F</v>
       </c>
       <c r="AE13" s="3">
-        <f t="shared" si="21"/>
-        <v>5000</v>
+        <f t="shared" si="18"/>
+        <v>1005000</v>
       </c>
       <c r="AF13" s="3">
         <f t="shared" si="9"/>
@@ -8765,7 +8755,7 @@
       </c>
       <c r="AG13" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="3">
         <f t="array" ref="AH13">SUM(($F$15:$F$29=AD13)*(ISNUMBER($I$15:$I$29)))</f>
@@ -8773,50 +8763,50 @@
       </c>
       <c r="AI13" s="3">
         <f t="array" ref="AI13">SUM(($H$15:$H$29=AD13)*(ISNUMBER($K$15:$K$29)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="AK13" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AL13" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>1</v>
       </c>
       <c r="AM13" s="3">
         <f>AJ13*Intro!$G$4+AK13*Intro!$G$6+AL13*Intro!$G$5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AO13" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="3">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="3">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AO13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="3">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AP13" s="3">
+      <c r="AS13" s="3">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="3">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="AR13" s="3">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AS13" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="AT13" s="3">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -8840,11 +8830,11 @@
       <c r="H14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="106" t="s">
+      <c r="I14" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="107"/>
-      <c r="K14" s="108"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="100"/>
       <c r="L14" s="2" t="s">
         <v>2</v>
       </c>
@@ -8874,26 +8864,30 @@
         <f>IF(B10="","",B10)</f>
         <v>Team F</v>
       </c>
-      <c r="I15" s="70"/>
+      <c r="I15" s="70">
+        <v>1</v>
+      </c>
       <c r="J15" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="71"/>
+      <c r="K15" s="71">
+        <v>1</v>
+      </c>
       <c r="L15" s="3" t="str">
         <f>IF(I15="","",IF(K15="","",IF(I15=K15,"-",IF(I15&gt;K15,F15,H15))))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="M15" s="3" t="str">
         <f>IF(I15="","",IF(K15="","",IF(I15=K15,"-",IF(I15&lt;K15,F15,H15))))</f>
-        <v/>
+        <v>-</v>
       </c>
       <c r="N15" s="3" t="str">
         <f>IF(I15="","",IF(K15="","",IF(I15=K15,F15,"-")))</f>
-        <v/>
+        <v>Team E</v>
       </c>
       <c r="O15" s="3" t="str">
         <f>IF(I15="","",IF(K15="","",IF(I15=K15,H15,"-")))</f>
-        <v/>
+        <v>Team F</v>
       </c>
     </row>
     <row r="16" spans="2:46">
@@ -9406,30 +9400,55 @@
         <f>IF(B6="","",B6)</f>
         <v>Team B</v>
       </c>
-      <c r="I29" s="70"/>
+      <c r="I29" s="70">
+        <v>2</v>
+      </c>
       <c r="J29" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="K29" s="71"/>
+      <c r="K29" s="71">
+        <v>0</v>
+      </c>
       <c r="L29" s="3" t="str">
         <f t="shared" si="22"/>
-        <v/>
+        <v>Team D</v>
       </c>
       <c r="M29" s="3" t="str">
         <f t="shared" si="23"/>
-        <v/>
+        <v>Team B</v>
       </c>
       <c r="N29" s="3" t="str">
         <f t="shared" si="24"/>
-        <v/>
+        <v>-</v>
       </c>
       <c r="O29" s="3" t="str">
         <f t="shared" si="25"/>
-        <v/>
+        <v>-</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AH4:AH7"/>
+    <mergeCell ref="AI4:AI7"/>
+    <mergeCell ref="AJ4:AJ7"/>
+    <mergeCell ref="AK4:AK7"/>
+    <mergeCell ref="AL4:AL7"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="I14:K14"/>
@@ -9446,27 +9465,6 @@
     <mergeCell ref="AQ4:AQ7"/>
     <mergeCell ref="AR4:AR7"/>
     <mergeCell ref="AG4:AG7"/>
-    <mergeCell ref="AH4:AH7"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="AK4:AK7"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AE4:AE7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -9528,19 +9526,19 @@
       <c r="M2" s="97"/>
       <c r="N2" s="97"/>
       <c r="O2" s="97"/>
-      <c r="R2" s="109" t="str">
+      <c r="R2" s="101" t="str">
         <f>B2</f>
         <v>Poule - 5 teams</v>
       </c>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
     </row>
     <row r="3" spans="2:46" ht="15" customHeight="1">
       <c r="B3" s="15"/>
@@ -9560,13 +9558,13 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="2:46" ht="15" customHeight="1">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -9577,96 +9575,96 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
-      <c r="R4" s="113" t="s">
+      <c r="R4" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="113" t="s">
+      <c r="S4" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="102" t="s">
+      <c r="T4" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="102" t="s">
+      <c r="X4" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" s="102" t="s">
+      <c r="Y4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="102" t="s">
+      <c r="Z4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="102" t="s">
+      <c r="AA4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="AD4" s="103" t="s">
+      <c r="AD4" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="AE4" s="101" t="s">
+      <c r="AE4" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="AF4" s="101" t="s">
+      <c r="AF4" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="AG4" s="101" t="s">
+      <c r="AG4" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="AH4" s="98" t="s">
+      <c r="AH4" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="98" t="s">
+      <c r="AI4" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AJ4" s="101" t="s">
+      <c r="AJ4" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="AK4" s="101" t="s">
+      <c r="AK4" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="101" t="s">
+      <c r="AL4" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="AM4" s="101" t="s">
+      <c r="AM4" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="AN4" s="101" t="s">
+      <c r="AN4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="AO4" s="98" t="s">
+      <c r="AO4" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="AP4" s="98" t="s">
+      <c r="AP4" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="AQ4" s="101" t="s">
+      <c r="AQ4" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="AR4" s="98" t="s">
+      <c r="AR4" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="AS4" s="98" t="s">
+      <c r="AS4" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="AT4" s="101" t="s">
+      <c r="AT4" s="109" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:46" ht="15" customHeight="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="112"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
@@ -9674,42 +9672,42 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="99"/>
-      <c r="AI5" s="99"/>
-      <c r="AJ5" s="99"/>
-      <c r="AK5" s="99"/>
-      <c r="AL5" s="99"/>
-      <c r="AM5" s="99"/>
-      <c r="AN5" s="99"/>
-      <c r="AO5" s="99"/>
-      <c r="AP5" s="99"/>
-      <c r="AQ5" s="99"/>
-      <c r="AR5" s="99"/>
-      <c r="AS5" s="99"/>
-      <c r="AT5" s="99"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="106"/>
+      <c r="AP5" s="106"/>
+      <c r="AQ5" s="106"/>
+      <c r="AR5" s="106"/>
+      <c r="AS5" s="106"/>
+      <c r="AT5" s="106"/>
     </row>
     <row r="6" spans="2:46">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
@@ -9717,42 +9715,42 @@
       <c r="N6" s="16"/>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="99"/>
-      <c r="AJ6" s="99"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="99"/>
-      <c r="AM6" s="99"/>
-      <c r="AN6" s="99"/>
-      <c r="AO6" s="99"/>
-      <c r="AP6" s="99"/>
-      <c r="AQ6" s="99"/>
-      <c r="AR6" s="99"/>
-      <c r="AS6" s="99"/>
-      <c r="AT6" s="99"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="106"/>
+      <c r="AI6" s="106"/>
+      <c r="AJ6" s="106"/>
+      <c r="AK6" s="106"/>
+      <c r="AL6" s="106"/>
+      <c r="AM6" s="106"/>
+      <c r="AN6" s="106"/>
+      <c r="AO6" s="106"/>
+      <c r="AP6" s="106"/>
+      <c r="AQ6" s="106"/>
+      <c r="AR6" s="106"/>
+      <c r="AS6" s="106"/>
+      <c r="AT6" s="106"/>
     </row>
     <row r="7" spans="2:46">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
@@ -9760,42 +9758,42 @@
       <c r="N7" s="16"/>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="100"/>
-      <c r="AI7" s="100"/>
-      <c r="AJ7" s="100"/>
-      <c r="AK7" s="100"/>
-      <c r="AL7" s="100"/>
-      <c r="AM7" s="100"/>
-      <c r="AN7" s="100"/>
-      <c r="AO7" s="100"/>
-      <c r="AP7" s="100"/>
-      <c r="AQ7" s="100"/>
-      <c r="AR7" s="100"/>
-      <c r="AS7" s="100"/>
-      <c r="AT7" s="100"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
     </row>
     <row r="8" spans="2:46">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="112"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="104"/>
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
@@ -9867,15 +9865,15 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="3">
-        <f>COUNTIF($L$5:$L$19,AD8)</f>
+        <f>COUNTIF($L$14:$L$23,AD8)</f>
         <v>0</v>
       </c>
       <c r="AK8" s="3">
-        <f>COUNTIF($M$5:$M$19,AD8)</f>
+        <f>COUNTIF($M$14:$M$23,AD8)</f>
         <v>0</v>
       </c>
       <c r="AL8" s="3">
-        <f>COUNTIF($N$5:$O$19,AD8)</f>
+        <f>COUNTIF($N$14:$O$23,AD8)</f>
         <v>0</v>
       </c>
       <c r="AM8" s="3">
@@ -9912,13 +9910,13 @@
       </c>
     </row>
     <row r="9" spans="2:46">
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="112"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
@@ -9990,15 +9988,15 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="3">
-        <f>COUNTIF($L$5:$L$19,AD9)</f>
+        <f t="shared" ref="AJ9:AJ12" si="6">COUNTIF($L$14:$L$23,AD9)</f>
         <v>0</v>
       </c>
       <c r="AK9" s="3">
-        <f>COUNTIF($M$5:$M$19,AD9)</f>
+        <f t="shared" ref="AK9:AK12" si="7">COUNTIF($M$14:$M$23,AD9)</f>
         <v>0</v>
       </c>
       <c r="AL9" s="3">
-        <f>COUNTIF($N$5:$O$19,AD9)</f>
+        <f t="shared" ref="AL9:AL12" si="8">COUNTIF($N$14:$O$23,AD9)</f>
         <v>0</v>
       </c>
       <c r="AM9" s="3">
@@ -10106,15 +10104,15 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="3">
-        <f>COUNTIF($L$5:$L$19,AD10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK10" s="3">
-        <f>COUNTIF($M$5:$M$19,AD10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL10" s="3">
-        <f>COUNTIF($N$5:$O$19,AD10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM10" s="3">
@@ -10222,15 +10220,15 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="3">
-        <f>COUNTIF($L$5:$L$19,AD11)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK11" s="3">
-        <f>COUNTIF($M$5:$M$19,AD11)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL11" s="3">
-        <f>COUNTIF($N$5:$O$19,AD11)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM11" s="3">
@@ -10338,15 +10336,15 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="3">
-        <f>COUNTIF($L$5:$L$19,AD12)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK12" s="3">
-        <f>COUNTIF($M$5:$M$19,AD12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL12" s="3">
-        <f>COUNTIF($N$5:$O$19,AD12)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM12" s="3">
@@ -10402,11 +10400,11 @@
       <c r="H13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="106" t="s">
+      <c r="I13" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="114"/>
-      <c r="K13" s="115"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="100"/>
       <c r="L13" s="2" t="s">
         <v>2</v>
       </c>
@@ -10442,19 +10440,19 @@
       </c>
       <c r="K14" s="71"/>
       <c r="L14" s="3" t="str">
-        <f>IF(I21="","",IF(K21="","",IF(I21=K21,"-",IF(I21&gt;K21,F21,H21))))</f>
+        <f>IF(I14="","",IF(K14="","",IF(I14=K14,"-",IF(I14&gt;K14,F14,H14))))</f>
         <v/>
       </c>
       <c r="M14" s="3" t="str">
-        <f>IF(I21="","",IF(K21="","",IF(I21=K21,"-",IF(I21&lt;K21,F21,H21))))</f>
+        <f>IF(I14="","",IF(K14="","",IF(I14=K14,"-",IF(I14&lt;K14,F14,H14))))</f>
         <v/>
       </c>
       <c r="N14" s="3" t="str">
-        <f>IF(I21="","",IF(K21="","",IF(I21=K21,F21,"-")))</f>
+        <f>IF(I14="","",IF(K14="","",IF(I14=K14,F14,"-")))</f>
         <v/>
       </c>
       <c r="O14" s="3" t="str">
-        <f>IF(I21="","",IF(K21="","",IF(I21=K21,H21,"-")))</f>
+        <f>IF(I14="","",IF(K14="","",IF(I14=K14,H14,"-")))</f>
         <v/>
       </c>
     </row>
@@ -10480,19 +10478,19 @@
       </c>
       <c r="K15" s="71"/>
       <c r="L15" s="3" t="str">
-        <f t="shared" ref="L15:L23" si="6">IF(I22="","",IF(K22="","",IF(I22=K22,"-",IF(I22&gt;K22,F22,H22))))</f>
+        <f t="shared" ref="L15:L23" si="9">IF(I15="","",IF(K15="","",IF(I15=K15,"-",IF(I15&gt;K15,F15,H15))))</f>
         <v/>
       </c>
       <c r="M15" s="3" t="str">
-        <f t="shared" ref="M15:M23" si="7">IF(I22="","",IF(K22="","",IF(I22=K22,"-",IF(I22&lt;K22,F22,H22))))</f>
+        <f t="shared" ref="M15:M23" si="10">IF(I15="","",IF(K15="","",IF(I15=K15,"-",IF(I15&lt;K15,F15,H15))))</f>
         <v/>
       </c>
       <c r="N15" s="3" t="str">
-        <f t="shared" ref="N15:N23" si="8">IF(I22="","",IF(K22="","",IF(I22=K22,F22,"-")))</f>
+        <f t="shared" ref="N15:N23" si="11">IF(I15="","",IF(K15="","",IF(I15=K15,F15,"-")))</f>
         <v/>
       </c>
       <c r="O15" s="3" t="str">
-        <f t="shared" ref="O15:O23" si="9">IF(I22="","",IF(K22="","",IF(I22=K22,H22,"-")))</f>
+        <f t="shared" ref="O15:O23" si="12">IF(I15="","",IF(K15="","",IF(I15=K15,H15,"-")))</f>
         <v/>
       </c>
     </row>
@@ -10518,19 +10516,19 @@
       </c>
       <c r="K16" s="71"/>
       <c r="L16" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M16" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N16" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O16" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10556,19 +10554,19 @@
       </c>
       <c r="K17" s="71"/>
       <c r="L17" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M17" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N17" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O17" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10594,19 +10592,19 @@
       </c>
       <c r="K18" s="71"/>
       <c r="L18" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M18" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N18" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O18" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10632,19 +10630,19 @@
       </c>
       <c r="K19" s="71"/>
       <c r="L19" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M19" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N19" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O19" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10670,19 +10668,19 @@
       </c>
       <c r="K20" s="71"/>
       <c r="L20" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M20" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N20" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O20" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10708,19 +10706,19 @@
       </c>
       <c r="K21" s="71"/>
       <c r="L21" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M21" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N21" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O21" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10746,19 +10744,19 @@
       </c>
       <c r="K22" s="71"/>
       <c r="L22" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M22" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N22" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O22" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10784,24 +10782,44 @@
       </c>
       <c r="K23" s="71"/>
       <c r="L23" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M23" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N23" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O23" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="AI4:AI7"/>
+    <mergeCell ref="AJ4:AJ7"/>
+    <mergeCell ref="AK4:AK7"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AF4:AF7"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="AS4:AS7"/>
@@ -10818,26 +10836,6 @@
     <mergeCell ref="AR4:AR7"/>
     <mergeCell ref="AG4:AG7"/>
     <mergeCell ref="AH4:AH7"/>
-    <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="AK4:AK7"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10899,19 +10897,19 @@
       <c r="M2" s="97"/>
       <c r="N2" s="97"/>
       <c r="O2" s="97"/>
-      <c r="R2" s="109" t="str">
+      <c r="R2" s="101" t="str">
         <f>B2</f>
         <v>Poule - 4 teams</v>
       </c>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
     </row>
     <row r="3" spans="2:46" ht="15" customHeight="1">
       <c r="B3" s="15"/>
@@ -10931,13 +10929,13 @@
       <c r="P3" s="16"/>
     </row>
     <row r="4" spans="2:46" ht="15" customHeight="1">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -10948,210 +10946,210 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
-      <c r="R4" s="113" t="s">
+      <c r="R4" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="113" t="s">
+      <c r="S4" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="102" t="s">
+      <c r="T4" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="102" t="s">
+      <c r="X4" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" s="102" t="s">
+      <c r="Y4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="102" t="s">
+      <c r="Z4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="102" t="s">
+      <c r="AA4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="AD4" s="103" t="s">
+      <c r="AD4" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="AE4" s="101" t="s">
+      <c r="AE4" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="AF4" s="101" t="s">
+      <c r="AF4" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="AG4" s="101" t="s">
+      <c r="AG4" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="AH4" s="98" t="s">
+      <c r="AH4" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="98" t="s">
+      <c r="AI4" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AJ4" s="101" t="s">
+      <c r="AJ4" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="AK4" s="101" t="s">
+      <c r="AK4" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="101" t="s">
+      <c r="AL4" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="AM4" s="101" t="s">
+      <c r="AM4" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="AN4" s="101" t="s">
+      <c r="AN4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="AO4" s="98" t="s">
+      <c r="AO4" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="AP4" s="98" t="s">
+      <c r="AP4" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="AQ4" s="101" t="s">
+      <c r="AQ4" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="AR4" s="98" t="s">
+      <c r="AR4" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="AS4" s="98" t="s">
+      <c r="AS4" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="AT4" s="101" t="s">
+      <c r="AT4" s="109" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:46" ht="15" customHeight="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="112"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="99"/>
-      <c r="AI5" s="99"/>
-      <c r="AJ5" s="99"/>
-      <c r="AK5" s="99"/>
-      <c r="AL5" s="99"/>
-      <c r="AM5" s="99"/>
-      <c r="AN5" s="99"/>
-      <c r="AO5" s="99"/>
-      <c r="AP5" s="99"/>
-      <c r="AQ5" s="99"/>
-      <c r="AR5" s="99"/>
-      <c r="AS5" s="99"/>
-      <c r="AT5" s="99"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="106"/>
+      <c r="AP5" s="106"/>
+      <c r="AQ5" s="106"/>
+      <c r="AR5" s="106"/>
+      <c r="AS5" s="106"/>
+      <c r="AT5" s="106"/>
     </row>
     <row r="6" spans="2:46">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="99"/>
-      <c r="AJ6" s="99"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="99"/>
-      <c r="AM6" s="99"/>
-      <c r="AN6" s="99"/>
-      <c r="AO6" s="99"/>
-      <c r="AP6" s="99"/>
-      <c r="AQ6" s="99"/>
-      <c r="AR6" s="99"/>
-      <c r="AS6" s="99"/>
-      <c r="AT6" s="99"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="106"/>
+      <c r="AI6" s="106"/>
+      <c r="AJ6" s="106"/>
+      <c r="AK6" s="106"/>
+      <c r="AL6" s="106"/>
+      <c r="AM6" s="106"/>
+      <c r="AN6" s="106"/>
+      <c r="AO6" s="106"/>
+      <c r="AP6" s="106"/>
+      <c r="AQ6" s="106"/>
+      <c r="AR6" s="106"/>
+      <c r="AS6" s="106"/>
+      <c r="AT6" s="106"/>
     </row>
     <row r="7" spans="2:46">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="100"/>
-      <c r="AI7" s="100"/>
-      <c r="AJ7" s="100"/>
-      <c r="AK7" s="100"/>
-      <c r="AL7" s="100"/>
-      <c r="AM7" s="100"/>
-      <c r="AN7" s="100"/>
-      <c r="AO7" s="100"/>
-      <c r="AP7" s="100"/>
-      <c r="AQ7" s="100"/>
-      <c r="AR7" s="100"/>
-      <c r="AS7" s="100"/>
-      <c r="AT7" s="100"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
     </row>
     <row r="8" spans="2:46">
-      <c r="B8" s="110" t="s">
+      <c r="B8" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="117"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="115"/>
       <c r="R8" s="6">
         <v>1</v>
       </c>
@@ -11216,15 +11214,15 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="3">
-        <f>COUNTIF($L$13:$L$24,AD8)</f>
+        <f>COUNTIF($L$13:$L$18,AD8)</f>
         <v>0</v>
       </c>
       <c r="AK8" s="3">
-        <f>COUNTIF($M$13:$M$24,AD8)</f>
+        <f>COUNTIF($M$13:$M$18,AD8)</f>
         <v>0</v>
       </c>
       <c r="AL8" s="3">
-        <f>COUNTIF($N$13:$O$24,AD8)</f>
+        <f>COUNTIF($N$13:$O$18,AD8)</f>
         <v>0</v>
       </c>
       <c r="AM8" s="3">
@@ -11330,15 +11328,15 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="3">
-        <f>COUNTIF($L$13:$L$24,AD9)</f>
+        <f t="shared" ref="AJ9:AJ11" si="6">COUNTIF($L$13:$L$18,AD9)</f>
         <v>0</v>
       </c>
       <c r="AK9" s="3">
-        <f>COUNTIF($M$13:$M$24,AD9)</f>
+        <f t="shared" ref="AK9:AK11" si="7">COUNTIF($M$13:$M$18,AD9)</f>
         <v>0</v>
       </c>
       <c r="AL9" s="3">
-        <f>COUNTIF($N$13:$O$24,AD9)</f>
+        <f t="shared" ref="AL9:AL11" si="8">COUNTIF($N$13:$O$18,AD9)</f>
         <v>0</v>
       </c>
       <c r="AM9" s="3">
@@ -11444,15 +11442,15 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="3">
-        <f>COUNTIF($L$13:$L$24,AD10)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK10" s="3">
-        <f>COUNTIF($M$13:$M$24,AD10)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL10" s="3">
-        <f>COUNTIF($N$13:$O$24,AD10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM10" s="3">
@@ -11558,15 +11556,15 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="3">
-        <f>COUNTIF($L$13:$L$24,AD11)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AK11" s="3">
-        <f>COUNTIF($M$13:$M$24,AD11)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AL11" s="3">
-        <f>COUNTIF($N$13:$O$24,AD11)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AM11" s="3">
@@ -11622,11 +11620,11 @@
       <c r="H12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="106" t="s">
+      <c r="I12" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="107"/>
-      <c r="K12" s="108"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="100"/>
       <c r="L12" s="2" t="s">
         <v>2</v>
       </c>
@@ -11700,19 +11698,19 @@
       </c>
       <c r="K14" s="71"/>
       <c r="L14" s="3" t="str">
-        <f t="shared" ref="L14:L18" si="6">IF(I14="","",IF(K14="","",IF(I14=K14,"-",IF(I14&gt;K14,F14,H14))))</f>
+        <f t="shared" ref="L14:L18" si="9">IF(I14="","",IF(K14="","",IF(I14=K14,"-",IF(I14&gt;K14,F14,H14))))</f>
         <v/>
       </c>
       <c r="M14" s="3" t="str">
-        <f t="shared" ref="M14:M18" si="7">IF(I14="","",IF(K14="","",IF(I14=K14,"-",IF(I14&lt;K14,F14,H14))))</f>
+        <f t="shared" ref="M14:M18" si="10">IF(I14="","",IF(K14="","",IF(I14=K14,"-",IF(I14&lt;K14,F14,H14))))</f>
         <v/>
       </c>
       <c r="N14" s="3" t="str">
-        <f t="shared" ref="N14:N18" si="8">IF(I14="","",IF(K14="","",IF(I14=K14,F14,"-")))</f>
+        <f t="shared" ref="N14:N18" si="11">IF(I14="","",IF(K14="","",IF(I14=K14,F14,"-")))</f>
         <v/>
       </c>
       <c r="O14" s="3" t="str">
-        <f t="shared" ref="O14:O18" si="9">IF(I14="","",IF(K14="","",IF(I14=K14,H14,"-")))</f>
+        <f t="shared" ref="O14:O18" si="12">IF(I14="","",IF(K14="","",IF(I14=K14,H14,"-")))</f>
         <v/>
       </c>
     </row>
@@ -11738,19 +11736,19 @@
       </c>
       <c r="K15" s="71"/>
       <c r="L15" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M15" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N15" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O15" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -11776,19 +11774,19 @@
       </c>
       <c r="K16" s="71"/>
       <c r="L16" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M16" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N16" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O16" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -11814,19 +11812,19 @@
       </c>
       <c r="K17" s="71"/>
       <c r="L17" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M17" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N17" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O17" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -11852,19 +11850,19 @@
       </c>
       <c r="K18" s="71"/>
       <c r="L18" s="3" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M18" s="3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N18" s="3" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O18" s="3" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -11933,6 +11931,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
+    <mergeCell ref="AJ4:AJ7"/>
+    <mergeCell ref="AK4:AK7"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AF4:AF7"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="AS4:AS7"/>
     <mergeCell ref="AT4:AT7"/>
@@ -11949,25 +11966,6 @@
     <mergeCell ref="AG4:AG7"/>
     <mergeCell ref="AH4:AH7"/>
     <mergeCell ref="AI4:AI7"/>
-    <mergeCell ref="AJ4:AJ7"/>
-    <mergeCell ref="AK4:AK7"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -11981,7 +11979,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AT20"/>
+  <dimension ref="B2:AT17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12030,19 +12028,19 @@
       <c r="M2" s="97"/>
       <c r="N2" s="97"/>
       <c r="O2" s="97"/>
-      <c r="R2" s="109" t="str">
+      <c r="R2" s="101" t="str">
         <f>B2</f>
         <v>Poule  - 3 teams (dubbele competitie)</v>
       </c>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
     </row>
     <row r="3" spans="2:46" ht="15" customHeight="1">
       <c r="B3" s="15"/>
@@ -12061,13 +12059,13 @@
       <c r="O3" s="16"/>
     </row>
     <row r="4" spans="2:46" ht="15" customHeight="1">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
@@ -12077,238 +12075,238 @@
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
-      <c r="R4" s="113" t="s">
+      <c r="R4" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="113" t="s">
+      <c r="S4" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="102" t="s">
+      <c r="T4" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="102" t="s">
+      <c r="U4" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="102" t="s">
+      <c r="V4" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="W4" s="102" t="s">
+      <c r="W4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="102" t="s">
+      <c r="X4" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="Y4" s="102" t="s">
+      <c r="Y4" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="102" t="s">
+      <c r="Z4" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="102" t="s">
+      <c r="AA4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="AD4" s="103" t="s">
+      <c r="AD4" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="AE4" s="101" t="s">
+      <c r="AE4" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="AF4" s="101" t="s">
+      <c r="AF4" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="AG4" s="101" t="s">
+      <c r="AG4" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="AH4" s="98" t="s">
+      <c r="AH4" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="AI4" s="98" t="s">
+      <c r="AI4" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="AJ4" s="101" t="s">
+      <c r="AJ4" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="AK4" s="101" t="s">
+      <c r="AK4" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="101" t="s">
+      <c r="AL4" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="AM4" s="101" t="s">
+      <c r="AM4" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="AN4" s="101" t="s">
+      <c r="AN4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="AO4" s="98" t="s">
+      <c r="AO4" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="AP4" s="98" t="s">
+      <c r="AP4" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="AQ4" s="101" t="s">
+      <c r="AQ4" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="AR4" s="98" t="s">
+      <c r="AR4" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="AS4" s="98" t="s">
+      <c r="AS4" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="AT4" s="101" t="s">
+      <c r="AT4" s="109" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:46" ht="15" customHeight="1">
-      <c r="B5" s="110" t="s">
+      <c r="B5" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="112"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
-      <c r="AA5" s="99"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="99"/>
-      <c r="AF5" s="99"/>
-      <c r="AG5" s="99"/>
-      <c r="AH5" s="99"/>
-      <c r="AI5" s="99"/>
-      <c r="AJ5" s="99"/>
-      <c r="AK5" s="99"/>
-      <c r="AL5" s="99"/>
-      <c r="AM5" s="99"/>
-      <c r="AN5" s="99"/>
-      <c r="AO5" s="99"/>
-      <c r="AP5" s="99"/>
-      <c r="AQ5" s="99"/>
-      <c r="AR5" s="99"/>
-      <c r="AS5" s="99"/>
-      <c r="AT5" s="99"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+      <c r="R5" s="106"/>
+      <c r="S5" s="106"/>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="106"/>
+      <c r="Y5" s="106"/>
+      <c r="Z5" s="106"/>
+      <c r="AA5" s="106"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="106"/>
+      <c r="AF5" s="106"/>
+      <c r="AG5" s="106"/>
+      <c r="AH5" s="106"/>
+      <c r="AI5" s="106"/>
+      <c r="AJ5" s="106"/>
+      <c r="AK5" s="106"/>
+      <c r="AL5" s="106"/>
+      <c r="AM5" s="106"/>
+      <c r="AN5" s="106"/>
+      <c r="AO5" s="106"/>
+      <c r="AP5" s="106"/>
+      <c r="AQ5" s="106"/>
+      <c r="AR5" s="106"/>
+      <c r="AS5" s="106"/>
+      <c r="AT5" s="106"/>
     </row>
     <row r="6" spans="2:46">
-      <c r="B6" s="110" t="s">
+      <c r="B6" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="112"/>
-      <c r="R6" s="99"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="99"/>
-      <c r="Y6" s="99"/>
-      <c r="Z6" s="99"/>
-      <c r="AA6" s="99"/>
-      <c r="AD6" s="104"/>
-      <c r="AE6" s="99"/>
-      <c r="AF6" s="99"/>
-      <c r="AG6" s="99"/>
-      <c r="AH6" s="99"/>
-      <c r="AI6" s="99"/>
-      <c r="AJ6" s="99"/>
-      <c r="AK6" s="99"/>
-      <c r="AL6" s="99"/>
-      <c r="AM6" s="99"/>
-      <c r="AN6" s="99"/>
-      <c r="AO6" s="99"/>
-      <c r="AP6" s="99"/>
-      <c r="AQ6" s="99"/>
-      <c r="AR6" s="99"/>
-      <c r="AS6" s="99"/>
-      <c r="AT6" s="99"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="104"/>
+      <c r="R6" s="106"/>
+      <c r="S6" s="106"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="106"/>
+      <c r="Y6" s="106"/>
+      <c r="Z6" s="106"/>
+      <c r="AA6" s="106"/>
+      <c r="AD6" s="111"/>
+      <c r="AE6" s="106"/>
+      <c r="AF6" s="106"/>
+      <c r="AG6" s="106"/>
+      <c r="AH6" s="106"/>
+      <c r="AI6" s="106"/>
+      <c r="AJ6" s="106"/>
+      <c r="AK6" s="106"/>
+      <c r="AL6" s="106"/>
+      <c r="AM6" s="106"/>
+      <c r="AN6" s="106"/>
+      <c r="AO6" s="106"/>
+      <c r="AP6" s="106"/>
+      <c r="AQ6" s="106"/>
+      <c r="AR6" s="106"/>
+      <c r="AS6" s="106"/>
+      <c r="AT6" s="106"/>
     </row>
     <row r="7" spans="2:46">
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112"/>
-      <c r="R7" s="100"/>
-      <c r="S7" s="100"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="100"/>
-      <c r="W7" s="100"/>
-      <c r="X7" s="100"/>
-      <c r="Y7" s="100"/>
-      <c r="Z7" s="100"/>
-      <c r="AA7" s="100"/>
-      <c r="AD7" s="105"/>
-      <c r="AE7" s="100"/>
-      <c r="AF7" s="100"/>
-      <c r="AG7" s="100"/>
-      <c r="AH7" s="100"/>
-      <c r="AI7" s="100"/>
-      <c r="AJ7" s="100"/>
-      <c r="AK7" s="100"/>
-      <c r="AL7" s="100"/>
-      <c r="AM7" s="100"/>
-      <c r="AN7" s="100"/>
-      <c r="AO7" s="100"/>
-      <c r="AP7" s="100"/>
-      <c r="AQ7" s="100"/>
-      <c r="AR7" s="100"/>
-      <c r="AS7" s="100"/>
-      <c r="AT7" s="100"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="104"/>
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="107"/>
+      <c r="AJ7" s="107"/>
+      <c r="AK7" s="107"/>
+      <c r="AL7" s="107"/>
+      <c r="AM7" s="107"/>
+      <c r="AN7" s="107"/>
+      <c r="AO7" s="107"/>
+      <c r="AP7" s="107"/>
+      <c r="AQ7" s="107"/>
+      <c r="AR7" s="107"/>
+      <c r="AS7" s="107"/>
+      <c r="AT7" s="107"/>
     </row>
     <row r="8" spans="2:46">
       <c r="R8" s="6">
         <v>1</v>
       </c>
       <c r="S8" s="3" t="str">
-        <f t="array" ref="S8">INDEX($AD$8:$AD$13,MATCH(LARGE($AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),ROW(S8)-ROW(S$8)+1),$AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),0))</f>
+        <f t="array" ref="S8">INDEX($AD$8:$AD$10,MATCH(LARGE($AE$8:$AE$10-ROW($AE$8:$AE$10)/COUNT($AE$8:$AE$10),ROW(S8)-ROW(S$8)+1),$AE$8:$AE$10-ROW($AE$8:$AE$10)/COUNT($AE$8:$AE$10),0))</f>
         <v>Team A</v>
       </c>
       <c r="T8" s="6">
-        <f t="shared" ref="T8:T10" si="0">VLOOKUP($S8,$AD$8:$AT$13,4,0)</f>
+        <f>VLOOKUP($S8,$AD$8:$AT$10,4,0)</f>
         <v>0</v>
       </c>
       <c r="U8" s="6">
-        <f t="shared" ref="U8:U10" si="1">VLOOKUP($S8,$AD$8:$AT$13,7,0)</f>
+        <f>VLOOKUP($S8,$AD$8:$AT$10,7,0)</f>
         <v>0</v>
       </c>
       <c r="V8" s="6">
-        <f t="shared" ref="V8:V10" si="2">VLOOKUP($S8,$AD$8:$AT$13,8,0)</f>
+        <f>VLOOKUP($S8,$AD$8:$AT$10,8,0)</f>
         <v>0</v>
       </c>
       <c r="W8" s="6">
-        <f t="shared" ref="W8:W10" si="3">VLOOKUP($S8,$AD$8:$AT$13,9,0)</f>
+        <f>VLOOKUP($S8,$AD$8:$AT$10,9,0)</f>
         <v>0</v>
       </c>
       <c r="X8" s="18">
-        <f t="shared" ref="X8:X10" si="4">VLOOKUP($S8,$AD$8:$AT$13,10,0)</f>
+        <f>VLOOKUP($S8,$AD$8:$AT$10,10,0)</f>
         <v>0</v>
       </c>
       <c r="Y8" s="6">
-        <f t="shared" ref="Y8:Y10" si="5">VLOOKUP($S8,$AD$8:$AT$13,11,0)</f>
+        <f>VLOOKUP($S8,$AD$8:$AT$10,11,0)</f>
         <v>0</v>
       </c>
       <c r="Z8" s="6">
-        <f t="shared" ref="Z8:Z10" si="6">VLOOKUP($S8,$AD$8:$AT$13,14,0)</f>
+        <f>VLOOKUP($S8,$AD$8:$AT$10,14,0)</f>
         <v>0</v>
       </c>
       <c r="AA8" s="6">
-        <f t="shared" ref="AA8:AA10" si="7">VLOOKUP($S8,$AD$8:$AT$13,17,0)</f>
+        <f>VLOOKUP($S8,$AD$8:$AT$10,17,0)</f>
         <v>0</v>
       </c>
       <c r="AD8" s="3" t="str">
-        <f t="shared" ref="AD8:AD10" si="8">B5</f>
+        <f t="shared" ref="AD8:AD10" si="0">B5</f>
         <v>Team A</v>
       </c>
       <c r="AE8" s="3">
@@ -12316,31 +12314,31 @@
         <v>4000</v>
       </c>
       <c r="AF8" s="3">
-        <f>COUNTIF($F$15:$H$29,AD8)</f>
+        <f>COUNTIF($F$12:$H$17,AD8)</f>
         <v>4</v>
       </c>
       <c r="AG8" s="3">
-        <f t="shared" ref="AG8:AG10" si="9">IF(OR(AH8="",AI8=""),AH8+AI8,AH8+AI8)</f>
+        <f t="shared" ref="AG8:AG10" si="1">IF(OR(AH8="",AI8=""),AH8+AI8,AH8+AI8)</f>
         <v>0</v>
       </c>
       <c r="AH8" s="3">
-        <f t="array" ref="AH8">SUM(($F$15:$F$29=AD8)*(ISNUMBER($I$15:$I$29)))</f>
+        <f t="array" ref="AH8">SUM(($F$12:$F$26=AD8)*(ISNUMBER($I$12:$I$26)))</f>
         <v>0</v>
       </c>
       <c r="AI8" s="3">
-        <f t="array" ref="AI8">SUM(($H$15:$H$29=AD8)*(ISNUMBER($K$15:$K$29)))</f>
+        <f t="array" ref="AI8">SUM(($H$12:$H$26=AD8)*(ISNUMBER($K$12:$K$26)))</f>
         <v>0</v>
       </c>
       <c r="AJ8" s="3">
-        <f>COUNTIF($L$15:$L$26,AD8)</f>
+        <f>COUNTIF($L$12:$L$17,AD8)</f>
         <v>0</v>
       </c>
       <c r="AK8" s="3">
-        <f>COUNTIF($M$15:$M$26,AD8)</f>
+        <f>COUNTIF($M$12:$M$17,AD8)</f>
         <v>0</v>
       </c>
       <c r="AL8" s="3">
-        <f>COUNTIF($N$15:$O$26,AD8)</f>
+        <f>COUNTIF($N$12:$O$17,AD8)</f>
         <v>0</v>
       </c>
       <c r="AM8" s="3">
@@ -12348,31 +12346,31 @@
         <v>0</v>
       </c>
       <c r="AN8" s="3">
-        <f t="shared" ref="AN8:AN10" si="10">IF(OR(AO8="",AP8=""),AO8+AP8,AO8+AP8)</f>
+        <f t="shared" ref="AN8:AN10" si="2">IF(OR(AO8="",AP8=""),AO8+AP8,AO8+AP8)</f>
         <v>0</v>
       </c>
       <c r="AO8" s="3">
-        <f>SUMIF($F$15:$F$29,AD8,$I$15:$I$29)</f>
+        <f>SUMIF($F$12:$F$17,AD8,$I$12:$I$17)</f>
         <v>0</v>
       </c>
       <c r="AP8" s="3">
-        <f>SUMIF($H$15:$H$29,AD8,$K$15:$K$29)</f>
+        <f>SUMIF($H$12:$H$17,AD8,$K$12:$K$17)</f>
         <v>0</v>
       </c>
       <c r="AQ8" s="3">
-        <f t="shared" ref="AQ8:AQ10" si="11">IF(OR(AR8="",AS8=""),AR8+AS8,AR8+AS8)</f>
+        <f t="shared" ref="AQ8:AQ10" si="3">IF(OR(AR8="",AS8=""),AR8+AS8,AR8+AS8)</f>
         <v>0</v>
       </c>
       <c r="AR8" s="3">
-        <f>SUMIF($F$15:$F$29,AD8,$K$15:$K$29)</f>
+        <f>SUMIF($F$12:$F$17,AD8,$K$12:$K$17)</f>
         <v>0</v>
       </c>
       <c r="AS8" s="3">
-        <f>SUMIF($H$15:$H$29,AD8,$I$15:$I$29)</f>
+        <f>SUMIF($H$12:$H$17,AD8,$I$12:$I$17)</f>
         <v>0</v>
       </c>
       <c r="AT8" s="3">
-        <f t="shared" ref="AT8:AT10" si="12">IF(OR(AN8="",AQ8=""),AN8-AQ8,AN8-AQ8)</f>
+        <f t="shared" ref="AT8:AT10" si="4">IF(OR(AN8="",AQ8=""),AN8-AQ8,AN8-AQ8)</f>
         <v>0</v>
       </c>
     </row>
@@ -12381,75 +12379,75 @@
         <v>2</v>
       </c>
       <c r="S9" s="3" t="str">
-        <f t="array" ref="S9">INDEX($AD$8:$AD$13,MATCH(LARGE($AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),ROW(S9)-ROW(S$8)+1),$AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),0))</f>
+        <f t="array" ref="S9">INDEX($AD$8:$AD$10,MATCH(LARGE($AE$8:$AE$10-ROW($AE$8:$AE$10)/COUNT($AE$8:$AE$10),ROW(S9)-ROW(S$8)+1),$AE$8:$AE$10-ROW($AE$8:$AE$10)/COUNT($AE$8:$AE$10),0))</f>
         <v>Team B</v>
       </c>
       <c r="T9" s="6">
+        <f>VLOOKUP($S9,$AD$8:$AT$10,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="6">
+        <f>VLOOKUP($S9,$AD$8:$AT$10,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="6">
+        <f>VLOOKUP($S9,$AD$8:$AT$10,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="6">
+        <f>VLOOKUP($S9,$AD$8:$AT$10,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X9" s="18">
+        <f>VLOOKUP($S9,$AD$8:$AT$10,10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
+        <f>VLOOKUP($S9,$AD$8:$AT$10,11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6">
+        <f>VLOOKUP($S9,$AD$8:$AT$10,14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="6">
+        <f>VLOOKUP($S9,$AD$8:$AT$10,17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="6">
+        <v>Team B</v>
+      </c>
+      <c r="AE9" s="3">
+        <f t="shared" ref="AE9:AE10" si="5">AT9+AM9*1000000+AF9*1000</f>
+        <v>4000</v>
+      </c>
+      <c r="AF9" s="3">
+        <f t="shared" ref="AF9:AF10" si="6">COUNTIF($F$12:$H$17,AD9)</f>
+        <v>4</v>
+      </c>
+      <c r="AG9" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA9" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="3" t="str">
-        <f t="shared" si="8"/>
-        <v>Team B</v>
-      </c>
-      <c r="AE9" s="3">
-        <f t="shared" ref="AE9:AE10" si="13">AT9+AM9*1000000+AF9*1000</f>
-        <v>4000</v>
-      </c>
-      <c r="AF9" s="3">
-        <f>COUNTIF($F$15:$H$29,AD9)</f>
-        <v>4</v>
-      </c>
-      <c r="AG9" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="AH9" s="3">
-        <f t="array" ref="AH9">SUM(($F$15:$F$29=AD9)*(ISNUMBER($I$15:$I$29)))</f>
+        <f t="array" ref="AH9">SUM(($F$12:$F$26=AD9)*(ISNUMBER($I$12:$I$26)))</f>
         <v>0</v>
       </c>
       <c r="AI9" s="3">
-        <f t="array" ref="AI9">SUM(($H$15:$H$29=AD9)*(ISNUMBER($K$15:$K$29)))</f>
+        <f t="array" ref="AI9">SUM(($H$12:$H$26=AD9)*(ISNUMBER($K$12:$K$26)))</f>
         <v>0</v>
       </c>
       <c r="AJ9" s="3">
-        <f>COUNTIF($L$15:$L$26,AD9)</f>
+        <f t="shared" ref="AJ9:AJ10" si="7">COUNTIF($L$12:$L$17,AD9)</f>
         <v>0</v>
       </c>
       <c r="AK9" s="3">
-        <f>COUNTIF($M$15:$M$26,AD9)</f>
+        <f t="shared" ref="AK9:AK10" si="8">COUNTIF($M$12:$M$17,AD9)</f>
         <v>0</v>
       </c>
       <c r="AL9" s="3">
-        <f>COUNTIF($N$15:$O$26,AD9)</f>
+        <f t="shared" ref="AL9:AL10" si="9">COUNTIF($N$12:$O$17,AD9)</f>
         <v>0</v>
       </c>
       <c r="AM9" s="3">
@@ -12457,31 +12455,31 @@
         <v>0</v>
       </c>
       <c r="AN9" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AO9" s="3">
-        <f>SUMIF($F$15:$F$29,AD9,$I$15:$I$29)</f>
+        <f t="shared" ref="AO9:AO10" si="10">SUMIF($F$12:$F$17,AD9,$I$12:$I$17)</f>
         <v>0</v>
       </c>
       <c r="AP9" s="3">
-        <f>SUMIF($H$15:$H$29,AD9,$K$15:$K$29)</f>
+        <f t="shared" ref="AP9:AP10" si="11">SUMIF($H$12:$H$17,AD9,$K$12:$K$17)</f>
         <v>0</v>
       </c>
       <c r="AQ9" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AR9" s="3">
-        <f>SUMIF($F$15:$F$29,AD9,$K$15:$K$29)</f>
+        <f t="shared" ref="AR9:AR10" si="12">SUMIF($F$12:$F$17,AD9,$K$12:$K$17)</f>
         <v>0</v>
       </c>
       <c r="AS9" s="3">
-        <f>SUMIF($H$15:$H$29,AD9,$I$15:$I$29)</f>
+        <f t="shared" ref="AS9:AS10" si="13">SUMIF($H$12:$H$17,AD9,$I$12:$I$17)</f>
         <v>0</v>
       </c>
       <c r="AT9" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -12490,75 +12488,75 @@
         <v>3</v>
       </c>
       <c r="S10" s="3" t="str">
-        <f t="array" ref="S10">INDEX($AD$8:$AD$13,MATCH(LARGE($AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),ROW(S10)-ROW(S$8)+1),$AE$8:$AE$13-ROW($AE$8:$AE$13)/COUNT($AE$8:$AE$13),0))</f>
+        <f t="array" ref="S10">INDEX($AD$8:$AD$10,MATCH(LARGE($AE$8:$AE$10-ROW($AE$8:$AE$10)/COUNT($AE$8:$AE$10),ROW(S10)-ROW(S$8)+1),$AE$8:$AE$10-ROW($AE$8:$AE$10)/COUNT($AE$8:$AE$10),0))</f>
         <v>Team C</v>
       </c>
       <c r="T10" s="6">
+        <f>VLOOKUP($S10,$AD$8:$AT$10,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="6">
+        <f>VLOOKUP($S10,$AD$8:$AT$10,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="6">
+        <f>VLOOKUP($S10,$AD$8:$AT$10,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="6">
+        <f>VLOOKUP($S10,$AD$8:$AT$10,9,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="18">
+        <f>VLOOKUP($S10,$AD$8:$AT$10,10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6">
+        <f>VLOOKUP($S10,$AD$8:$AT$10,11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="6">
+        <f>VLOOKUP($S10,$AD$8:$AT$10,14,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="6">
+        <f>VLOOKUP($S10,$AD$8:$AT$10,17,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="6">
+        <v>Team C</v>
+      </c>
+      <c r="AE10" s="3">
+        <f t="shared" si="5"/>
+        <v>4000</v>
+      </c>
+      <c r="AF10" s="3">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AG10" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V10" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="6">
+      <c r="AH10" s="3">
+        <f t="array" ref="AH10">SUM(($F$12:$F$26=AD10)*(ISNUMBER($I$12:$I$26)))</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="3">
+        <f t="array" ref="AI10">SUM(($H$12:$H$26=AD10)*(ISNUMBER($K$12:$K$26)))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="3" t="str">
+      <c r="AK10" s="3">
         <f t="shared" si="8"/>
-        <v>Team C</v>
-      </c>
-      <c r="AE10" s="3">
-        <f t="shared" si="13"/>
-        <v>4000</v>
-      </c>
-      <c r="AF10" s="3">
-        <f>COUNTIF($F$15:$H$29,AD10)</f>
-        <v>4</v>
-      </c>
-      <c r="AG10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AH10" s="3">
-        <f t="array" ref="AH10">SUM(($F$15:$F$29=AD10)*(ISNUMBER($I$15:$I$29)))</f>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="3">
-        <f t="array" ref="AI10">SUM(($H$15:$H$29=AD10)*(ISNUMBER($K$15:$K$29)))</f>
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="3">
-        <f>COUNTIF($L$15:$L$26,AD10)</f>
-        <v>0</v>
-      </c>
-      <c r="AK10" s="3">
-        <f>COUNTIF($M$15:$M$26,AD10)</f>
-        <v>0</v>
-      </c>
-      <c r="AL10" s="3">
-        <f>COUNTIF($N$15:$O$26,AD10)</f>
         <v>0</v>
       </c>
       <c r="AM10" s="3">
@@ -12566,70 +12564,184 @@
         <v>0</v>
       </c>
       <c r="AN10" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AO10" s="3">
-        <f>SUMIF($F$15:$F$29,AD10,$I$15:$I$29)</f>
-        <v>0</v>
-      </c>
       <c r="AP10" s="3">
-        <f>SUMIF($H$15:$H$29,AD10,$K$15:$K$29)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AQ10" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AR10" s="3">
-        <f>SUMIF($F$15:$F$29,AD10,$K$15:$K$29)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AS10" s="3">
-        <f>SUMIF($H$15:$H$29,AD10,$I$15:$I$29)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT10" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:46">
+      <c r="B11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="98" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="116"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:46">
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="7" t="str">
+        <f>IF(B6="","",B6)</f>
+        <v>Team B</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="23" t="str">
+        <f>IF(B5="","",B5)</f>
+        <v>Team A</v>
+      </c>
+      <c r="I12" s="70"/>
+      <c r="J12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="71"/>
+      <c r="L12" s="3" t="str">
+        <f>IF(I12="","",IF(K12="","",IF(I12=K12,"-",IF(I12&gt;K12,F12,H12))))</f>
+        <v/>
+      </c>
+      <c r="M12" s="3" t="str">
+        <f>IF(I12="","",IF(K12="","",IF(I12=K12,"-",IF(I12&lt;K12,F12,H12))))</f>
+        <v/>
+      </c>
+      <c r="N12" s="3" t="str">
+        <f>IF(I12="","",IF(K12="","",IF(I12=K12,F12,"-")))</f>
+        <v/>
+      </c>
+      <c r="O12" s="3" t="str">
+        <f>IF(I12="","",IF(K12="","",IF(I12=K12,H12,"-")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:46">
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="7" t="str">
+        <f>IF(B5="","",B5)</f>
+        <v>Team A</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="23" t="str">
+        <f>IF(B7="","",B7)</f>
+        <v>Team C</v>
+      </c>
+      <c r="I13" s="70"/>
+      <c r="J13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="71"/>
+      <c r="L13" s="3" t="str">
+        <f t="shared" ref="L13:L17" si="14">IF(I13="","",IF(K13="","",IF(I13=K13,"-",IF(I13&gt;K13,F13,H13))))</f>
+        <v/>
+      </c>
+      <c r="M13" s="3" t="str">
+        <f t="shared" ref="M13:M17" si="15">IF(I13="","",IF(K13="","",IF(I13=K13,"-",IF(I13&lt;K13,F13,H13))))</f>
+        <v/>
+      </c>
+      <c r="N13" s="3" t="str">
+        <f t="shared" ref="N13:N17" si="16">IF(I13="","",IF(K13="","",IF(I13=K13,F13,"-")))</f>
+        <v/>
+      </c>
+      <c r="O13" s="3" t="str">
+        <f t="shared" ref="O13:O17" si="17">IF(I13="","",IF(K13="","",IF(I13=K13,H13,"-")))</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="2:46">
-      <c r="B14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="106" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="118"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>3</v>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="7" t="str">
+        <f>IF(B7="","",B7)</f>
+        <v>Team C</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="23" t="str">
+        <f>IF(B6="","",B6)</f>
+        <v>Team B</v>
+      </c>
+      <c r="I14" s="70"/>
+      <c r="J14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="71"/>
+      <c r="L14" s="3" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M14" s="3" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N14" s="3" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O14" s="3" t="str">
+        <f t="shared" si="17"/>
+        <v/>
       </c>
     </row>
     <row r="15" spans="2:46">
@@ -12638,35 +12750,35 @@
       <c r="D15" s="69"/>
       <c r="E15" s="67"/>
       <c r="F15" s="7" t="str">
+        <f>IF(B5="","",B5)</f>
+        <v>Team A</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="23" t="str">
         <f>IF(B6="","",B6)</f>
         <v>Team B</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="23" t="str">
-        <f>IF(B5="","",B5)</f>
-        <v>Team A</v>
-      </c>
       <c r="I15" s="70"/>
       <c r="J15" s="14" t="s">
         <v>0</v>
       </c>
       <c r="K15" s="71"/>
       <c r="L15" s="3" t="str">
-        <f>IF(I15="","",IF(K15="","",IF(I15=K15,"-",IF(I15&gt;K15,F15,H15))))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M15" s="3" t="str">
-        <f>IF(I15="","",IF(K15="","",IF(I15=K15,"-",IF(I15&lt;K15,F15,H15))))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N15" s="3" t="str">
-        <f>IF(I15="","",IF(K15="","",IF(I15=K15,F15,"-")))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O15" s="3" t="str">
-        <f>IF(I15="","",IF(K15="","",IF(I15=K15,H15,"-")))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12675,36 +12787,36 @@
       <c r="C16" s="67"/>
       <c r="D16" s="69"/>
       <c r="E16" s="67"/>
-      <c r="F16" s="7" t="str">
+      <c r="F16" s="1" t="str">
+        <f>IF(B7="","",B7)</f>
+        <v>Team C</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="str">
         <f>IF(B5="","",B5)</f>
         <v>Team A</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="23" t="str">
-        <f>IF(B7="","",B7)</f>
-        <v>Team C</v>
-      </c>
       <c r="I16" s="70"/>
       <c r="J16" s="14" t="s">
         <v>0</v>
       </c>
       <c r="K16" s="71"/>
       <c r="L16" s="3" t="str">
-        <f t="shared" ref="L16:L20" si="14">IF(I16="","",IF(K16="","",IF(I16=K16,"-",IF(I16&gt;K16,F16,H16))))</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M16" s="3" t="str">
-        <f t="shared" ref="M16:M20" si="15">IF(I16="","",IF(K16="","",IF(I16=K16,"-",IF(I16&lt;K16,F16,H16))))</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N16" s="3" t="str">
-        <f t="shared" ref="N16:N20" si="16">IF(I16="","",IF(K16="","",IF(I16=K16,F16,"-")))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O16" s="3" t="str">
-        <f t="shared" ref="O16:O20" si="17">IF(I16="","",IF(K16="","",IF(I16=K16,H16,"-")))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -12714,15 +12826,15 @@
       <c r="D17" s="69"/>
       <c r="E17" s="67"/>
       <c r="F17" s="7" t="str">
+        <f>IF(B6="","",B6)</f>
+        <v>Team B</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="19" t="str">
         <f>IF(B7="","",B7)</f>
         <v>Team C</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="23" t="str">
-        <f>IF(B6="","",B6)</f>
-        <v>Team B</v>
       </c>
       <c r="I17" s="70"/>
       <c r="J17" s="14" t="s">
@@ -12746,141 +12858,9 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:15">
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="7" t="str">
-        <f>IF(B5="","",B5)</f>
-        <v>Team A</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="23" t="str">
-        <f>IF(B6="","",B6)</f>
-        <v>Team B</v>
-      </c>
-      <c r="I18" s="70"/>
-      <c r="J18" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="71"/>
-      <c r="L18" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M18" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N18" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="O18" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="1" t="str">
-        <f>IF(B7="","",B7)</f>
-        <v>Team C</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1" t="str">
-        <f>IF(B5="","",B5)</f>
-        <v>Team A</v>
-      </c>
-      <c r="I19" s="70"/>
-      <c r="J19" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="71"/>
-      <c r="L19" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M19" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N19" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="O19" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="7" t="str">
-        <f>IF(B6="","",B6)</f>
-        <v>Team B</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="19" t="str">
-        <f>IF(B7="","",B7)</f>
-        <v>Team C</v>
-      </c>
-      <c r="I20" s="70"/>
-      <c r="J20" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="71"/>
-      <c r="L20" s="3" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M20" s="3" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N20" s="3" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="O20" s="3" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="R4:R7"/>
-    <mergeCell ref="S4:S7"/>
-    <mergeCell ref="T4:T7"/>
-    <mergeCell ref="U4:U7"/>
-    <mergeCell ref="V4:V7"/>
-    <mergeCell ref="W4:W7"/>
-    <mergeCell ref="X4:X7"/>
-    <mergeCell ref="AK4:AK7"/>
-    <mergeCell ref="AL4:AL7"/>
-    <mergeCell ref="Y4:Y7"/>
-    <mergeCell ref="Z4:Z7"/>
-    <mergeCell ref="AA4:AA7"/>
-    <mergeCell ref="AD4:AD7"/>
-    <mergeCell ref="AE4:AE7"/>
-    <mergeCell ref="AF4:AF7"/>
-    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I11:K11"/>
     <mergeCell ref="AS4:AS7"/>
     <mergeCell ref="AT4:AT7"/>
     <mergeCell ref="B5:F5"/>
@@ -12896,6 +12876,24 @@
     <mergeCell ref="AH4:AH7"/>
     <mergeCell ref="AI4:AI7"/>
     <mergeCell ref="AJ4:AJ7"/>
+    <mergeCell ref="AK4:AK7"/>
+    <mergeCell ref="AL4:AL7"/>
+    <mergeCell ref="Y4:Y7"/>
+    <mergeCell ref="Z4:Z7"/>
+    <mergeCell ref="AA4:AA7"/>
+    <mergeCell ref="AD4:AD7"/>
+    <mergeCell ref="AE4:AE7"/>
+    <mergeCell ref="AF4:AF7"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="R4:R7"/>
+    <mergeCell ref="S4:S7"/>
+    <mergeCell ref="T4:T7"/>
+    <mergeCell ref="U4:U7"/>
+    <mergeCell ref="V4:V7"/>
+    <mergeCell ref="W4:W7"/>
+    <mergeCell ref="X4:X7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
